--- a/classicmodels productlines.xlsx
+++ b/classicmodels productlines.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/de648ae267341f47/Desktop/POWER BI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\5001 DADS6005\00 Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEE2C26D-47E1-4BFC-99D6-B76BFD26C6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC0CF20-BAA9-4236-8B72-E25BF0F5CBC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B2FF120F-0E12-44B0-927B-6D9ED7BCA2EA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B2FF120F-0E12-44B0-927B-6D9ED7BCA2EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,12 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,16 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
-  <si>
-    <t>productLine</t>
-  </si>
-  <si>
-    <t>textDescription</t>
-  </si>
-  <si>
-    <t>htmlDescription</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Classic Cars</t>
   </si>
@@ -53,9 +41,6 @@
     <t>Attention car enthusiasts: Make your wildest car ownership dreams come true. Whether you are looking for classic muscle cars, dream sports cars or movie-inspired miniatures, you will find great choices in this category. These replicas feature superb attention to detail and craftsmanship and offer features such as working steering system, opening forward compartment, opening rear trunk with removable spare wheel, 4-wheel independent spring suspension, and so on. The models range in size from 1:10 to 1:24 scale and include numerous limited edition and several out-of-production vehicles. All models include a certificate of authenticity from their manufacturers and come fully assembled and ready for display in the home or office.</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Motorcycles</t>
   </si>
   <si>
@@ -90,6 +75,12 @@
   </si>
   <si>
     <t>Our Vintage Car models realistically portray automobiles produced from the early 1900s through the 1940s. Materials used include Bakelite, diecast, plastic and wood. Most of the replicas are in the 1:18 and 1:24 scale sizes, which provide the optimum in detail and accuracy. Prices range from $30.00 up to $180.00 for some special limited edition replicas. All models include a certificate of authenticity from their manufacturers and come fully assembled and ready for display in the home or office.</t>
+  </si>
+  <si>
+    <t>ProductLine</t>
+  </si>
+  <si>
+    <t>ProductLineDescription</t>
   </si>
 </sst>
 </file>
@@ -111,12 +102,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -131,9 +128,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,100 +446,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{498C4354-FBF3-41EC-B0BD-CC158F385BDB}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -550,6 +527,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009B58B6375AE14448A5D0CF0F64FFB8F4" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9724ecb6b41f70e553453d817a826dcf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="043cbd50-b41d-4df2-bba9-f05baa1174a4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c1355ef1f9b5c1e40ad143597c176db5" ns2:_="">
     <xsd:import namespace="043cbd50-b41d-4df2-bba9-f05baa1174a4"/>
@@ -717,19 +703,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB07453B-9E00-45E8-BE35-6C2A1C6D629F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF01AB13-159D-455B-9800-2837E99794BE}"/>
-</file>
-
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB07453B-9E00-45E8-BE35-6C2A1C6D629F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF01AB13-159D-455B-9800-2837E99794BE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="043cbd50-b41d-4df2-bba9-f05baa1174a4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>